--- a/Courant/Sources & glossaire.xlsx
+++ b/Courant/Sources & glossaire.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\TPI\.Courant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\TPI\Courant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715ED59F-CD87-4145-841B-C6A367E3C5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62878B20-CD5C-405D-8A9B-A871AE6A0FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="0" windowWidth="22530" windowHeight="20850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28965" yWindow="30" windowWidth="22530" windowHeight="20850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>Source</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>26.5.2023</t>
+  </si>
+  <si>
+    <t>CLI</t>
+  </si>
+  <si>
+    <t>Commande Ligne Interface</t>
   </si>
 </sst>
 </file>
@@ -198,7 +204,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -267,7 +273,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -552,7 +558,7 @@
   <dimension ref="A1:C315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2279,7 +2285,7 @@
   <dimension ref="A1:B375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2345,8 +2351,12 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>

--- a/Courant/Sources & glossaire.xlsx
+++ b/Courant/Sources & glossaire.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\TPI\Courant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62878B20-CD5C-405D-8A9B-A871AE6A0FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53B5591-525A-4071-AFF4-9D4BD33470A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28965" yWindow="30" windowWidth="22530" windowHeight="20850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="600" windowWidth="22350" windowHeight="20850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
     <sheet name="Glossaire" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>Source</t>
   </si>
@@ -197,6 +197,39 @@
   </si>
   <si>
     <t>Commande Ligne Interface</t>
+  </si>
+  <si>
+    <t>DHCP</t>
+  </si>
+  <si>
+    <t>Dynamic Host Configuration Protocol</t>
+  </si>
+  <si>
+    <t>Open Systems Interconnection: norme de communication en réseau</t>
+  </si>
+  <si>
+    <t>Adresse IP</t>
+  </si>
+  <si>
+    <t>Modèle OSI</t>
+  </si>
+  <si>
+    <t>Internet Protocol: numéro d'identification attribué à chaque périphérique relié à un réseau informatique</t>
+  </si>
+  <si>
+    <t>Sip</t>
+  </si>
+  <si>
+    <t>Service Informatique pédagogique</t>
+  </si>
+  <si>
+    <t>Ping</t>
+  </si>
+  <si>
+    <t>Tracert</t>
+  </si>
+  <si>
+    <t>GUI</t>
   </si>
 </sst>
 </file>
@@ -557,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C315"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2284,8 +2317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2359,31 +2392,53 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">

--- a/Courant/Sources & glossaire.xlsx
+++ b/Courant/Sources & glossaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\TPI\Courant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53B5591-525A-4071-AFF4-9D4BD33470A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5E0EDF-CE41-40A2-8E35-A3D42D9D8901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="600" windowWidth="22350" windowHeight="20850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="150" windowWidth="22350" windowHeight="20850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>Source</t>
   </si>
@@ -230,6 +230,27 @@
   </si>
   <si>
     <t>GUI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=meH6ADWJas8</t>
+  </si>
+  <si>
+    <t>VPN Site à site</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>IPSec</t>
+  </si>
+  <si>
+    <t>SSL</t>
+  </si>
+  <si>
+    <t>DH</t>
+  </si>
+  <si>
+    <t>Diffie-Hellman Groups: détermine la force de la clé utilisée dans un processus d'échange de clé cryptographique</t>
   </si>
 </sst>
 </file>
@@ -590,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C315"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,7 +827,9 @@
       <c r="B19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -820,9 +843,15 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -2307,9 +2336,10 @@
     <hyperlink ref="B18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="B19" r:id="rId10" xr:uid="{B7D83742-3D52-4440-8D9A-84C7BE8D1DCE}"/>
     <hyperlink ref="B20" r:id="rId11" xr:uid="{C4651985-606D-4CE8-8E08-FC9EDD2F866B}"/>
+    <hyperlink ref="B21" r:id="rId12" xr:uid="{0CA6973A-B4BC-4E1E-8BBA-480EFD05E6D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -2317,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B375"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2442,16 +2472,24 @@
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>

--- a/Courant/Sources & glossaire.xlsx
+++ b/Courant/Sources & glossaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\TPI\Courant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5E0EDF-CE41-40A2-8E35-A3D42D9D8901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4F6249-B0FA-4E7C-B2DF-F1FBFD58004C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5985" yWindow="150" windowWidth="22350" windowHeight="20850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t>Source</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>Diffie-Hellman Groups: détermine la force de la clé utilisée dans un processus d'échange de clé cryptographique</t>
+  </si>
+  <si>
+    <t>AES256</t>
+  </si>
+  <si>
+    <t>SHA256</t>
   </si>
 </sst>
 </file>
@@ -2348,7 +2354,7 @@
   <dimension ref="A1:B375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2492,11 +2498,15 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
